--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -25,6 +25,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -39,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -70,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">MySQL 的复制是基于如下 </t>
     </r>
     <r>
@@ -111,6 +135,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. Master 上面的 binlog dump 线程，该线程负责将 master 的 binlog </t>
     </r>
     <r>
@@ -140,6 +170,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4. 如果是多线程复制，无论是 </t>
     </r>
     <r>
@@ -266,6 +302,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -280,6 +322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -312,6 +360,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -326,6 +380,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -355,6 +415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>Undo：在 MySQL5.</t>
     </r>
     <r>
@@ -483,6 +549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">当 cpu 飙升到 </t>
     </r>
     <r>
@@ -560,6 +632,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Explain 结果中，一般来说，要看到尽量用 index(type 为 </t>
     </r>
     <r>
@@ -619,6 +697,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">被驱动表的连接列，也需要建立索引。被驱动表的连接列也可能会跟 </t>
     </r>
     <r>
@@ -696,6 +780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">之后显式开启一个事务(START TRANSACTION </t>
     </r>
     <r>
@@ -743,6 +833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>xtrabackup 属于物理备份，直接拷贝表空间文件，同时不断扫描产生的 redo 日志并保存下来。最后完成 innodb 的备份后，会做一个 flush engine logs 的操作(老版本在有 bug，在</t>
     </r>
     <r>
@@ -769,6 +865,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">情)。然后还需要 flush tables with read </t>
     </r>
     <r>
@@ -942,6 +1044,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>第二个：我们“行骗”的时候，比如说我们竞标的时候压测，把query cache打开，还是能收到qps激增的效果，当然前提示前端的连接池什么的都配置一样。大部分情况下如果写入的居多，访问量并不多，那么就不要打开，例如社交网站的，</t>
     </r>
     <r>
@@ -999,6 +1107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">例: </t>
     </r>
     <r>
@@ -1094,6 +1208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>for</t>
     </r>
     <r>
@@ -1445,6 +1565,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>RANGE分区</t>
     </r>
     <r>
@@ -1459,6 +1586,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>LIST分区</t>
     </r>
     <r>
@@ -1473,6 +1607,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>HASH分区</t>
     </r>
     <r>
@@ -1487,6 +1628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>KEY分区 </t>
     </r>
     <r>
@@ -1504,6 +1652,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>erializable (串行化)</t>
     </r>
     <r>
@@ -1518,6 +1673,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>Repeatable read (可重复读)</t>
     </r>
     <r>
@@ -1532,6 +1694,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>Read committed (读已提交)</t>
     </r>
     <r>
@@ -1546,6 +1715,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>Read uncommitted (读未提交)</t>
     </r>
     <r>
@@ -1572,6 +1748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>1 LBCC</t>
     </r>
     <r>
@@ -1604,6 +1786,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2 MVCC</t>
     </r>
     <r>
@@ -1714,6 +1902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>1 InnoDB</t>
     </r>
     <r>
@@ -1749,6 +1943,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2 InnoDB</t>
     </r>
     <r>
@@ -1817,6 +2017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>3 InnoDB</t>
     </r>
     <r>
@@ -1837,6 +2043,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>4 InnoDB</t>
     </r>
     <r>
@@ -1887,6 +2099,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>5 Innodb</t>
     </r>
     <r>
@@ -1940,6 +2158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1 是否要支持事务，如果要请选择</t>
     </r>
     <r>
@@ -1981,6 +2205,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2 如果表中绝大多数都只是读查询，可以考虑</t>
     </r>
     <r>
@@ -2013,6 +2243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3 系统奔溃后，</t>
     </r>
     <r>
@@ -2036,6 +2272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>4 MySQL5.5</t>
     </r>
     <r>
@@ -2210,12 +2452,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,31 +2512,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2306,7 +2526,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,9 +2571,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2345,76 +2649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,31 +2670,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,7 +2748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,37 +2772,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,31 +2808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,55 +2850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,11 +2864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2649,6 +2890,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2670,54 +2953,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2731,152 +2966,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2895,16 +3130,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3478,8 +3707,8 @@
   <sheetPr/>
   <dimension ref="A1:D552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4610,7 +4839,7 @@
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4935,27 +5164,27 @@
       </c>
     </row>
     <row r="434" spans="2:2">
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="436" spans="2:2">
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="437" spans="2:2">
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="438" spans="2:2">
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="6" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4980,22 +5209,22 @@
       </c>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="8" t="s">
+      <c r="B446" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="448" spans="2:2">
-      <c r="B448" s="8" t="s">
+      <c r="B448" s="7" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5005,22 +5234,22 @@
       </c>
     </row>
     <row r="451" spans="2:2">
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="453" spans="2:2">
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="455" spans="2:2">
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="7" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="8" t="s">
+      <c r="B457" s="7" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5045,17 +5274,17 @@
       </c>
     </row>
     <row r="463" spans="3:3">
-      <c r="C463" s="9" t="s">
+      <c r="C463" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="464" spans="3:3">
-      <c r="C464" s="9" t="s">
+      <c r="C464" s="6" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="465" spans="3:3">
-      <c r="C465" s="7" t="s">
+      <c r="C465" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5200,42 +5429,42 @@
       </c>
     </row>
     <row r="499" spans="3:3">
-      <c r="C499" s="9" t="s">
+      <c r="C499" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="500" spans="4:4">
-      <c r="D500" s="7" t="s">
+      <c r="D500" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="502" spans="3:3">
-      <c r="C502" s="9" t="s">
+      <c r="C502" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="504" spans="3:3">
-      <c r="C504" s="9" t="s">
+      <c r="C504" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="505" spans="4:4">
-      <c r="D505" s="7" t="s">
+      <c r="D505" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="506" spans="4:4">
-      <c r="D506" s="7" t="s">
+      <c r="D506" s="6" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="508" spans="3:3">
-      <c r="C508" s="9" t="s">
+      <c r="C508" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="510" spans="3:3">
-      <c r="C510" s="9" t="s">
+      <c r="C510" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5245,22 +5474,22 @@
       </c>
     </row>
     <row r="513" spans="3:3">
-      <c r="C513" s="10" t="s">
+      <c r="C513" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="515" spans="3:3">
-      <c r="C515" s="10" t="s">
+      <c r="C515" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="517" spans="3:3">
-      <c r="C517" s="10" t="s">
+      <c r="C517" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="519" spans="3:3">
-      <c r="C519" s="9" t="s">
+      <c r="C519" s="6" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5275,42 +5504,42 @@
       </c>
     </row>
     <row r="523" spans="3:3">
-      <c r="C523" s="11" t="s">
+      <c r="C523" s="9" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="525" spans="3:3">
-      <c r="C525" s="11" t="s">
+      <c r="C525" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="527" spans="3:3">
-      <c r="C527" s="11" t="s">
+      <c r="C527" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="529" spans="3:3">
-      <c r="C529" s="11" t="s">
+      <c r="C529" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="531" spans="3:3">
-      <c r="C531" s="11" t="s">
+      <c r="C531" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="533" spans="3:3">
-      <c r="C533" s="11" t="s">
+      <c r="C533" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="535" spans="3:3">
-      <c r="C535" s="11" t="s">
+      <c r="C535" s="9" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="537" spans="3:3">
-      <c r="C537" s="11" t="s">
+      <c r="C537" s="9" t="s">
         <v>359</v>
       </c>
     </row>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="399">
   <si>
     <t>MySQL的复制原理以及流程</t>
   </si>
@@ -411,17 +411,1531 @@
     <t>(2)、日志的存放形式</t>
   </si>
   <si>
-    <t>redo：在页修改的时候，先写到 redo log buffer 里面， 然后写到 redo log 的文件系统缓存里面(fwrite)，然后再同步到磁盘文件（ fsync）。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Undo：在 MySQL5.</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>redo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：在页修改的时候，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先写到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> redo log buffer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后写到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> redo log </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的文件系统缓存里面</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(fwrite)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后再同步到磁盘文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> fsync</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Undo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：在</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MySQL5.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前</t>
+    </r>
+  </si>
+  <si>
+    <t>undo 只能存放在 ibdata*文件里面</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MySQL5.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后</t>
+    </r>
+  </si>
+  <si>
+    <t>可以通过设置 innodb_undo_tablespaces 参数把 undo log 存放在 ibdata*之外。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务是如何通过日志来实现的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，说得越深入越好</t>
+    </r>
+  </si>
+  <si>
+    <t>基本流程如下：</t>
+  </si>
+  <si>
+    <t>因为事务在修改页时</t>
+  </si>
+  <si>
+    <t>要先记 undo，</t>
+  </si>
+  <si>
+    <t>在记 undo 之前要记 undo 的 redo，</t>
+  </si>
+  <si>
+    <t>然后修改数据页</t>
+  </si>
+  <si>
+    <t>再记数据页修改的 redo</t>
+  </si>
+  <si>
+    <t>当事务需要回滚时</t>
+  </si>
+  <si>
+    <t>因为有 undo，可以把数据页回滚到前镜像的状态，</t>
+  </si>
+  <si>
+    <t>崩溃恢复时:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果 redo log 中事务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对应的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit 记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么需要用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undo把该事务的修改回滚到事务开始之前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commit 记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，就用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redo 前滚到该事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成时并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提交掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>MySQL binlog的几种日志录入格式以及区别</t>
+  </si>
+  <si>
+    <t>(1)、 各种日志格式的涵义</t>
+  </si>
+  <si>
+    <t>1.Statement：每一条会修改数据的sql都会记录在binlog中。</t>
+  </si>
+  <si>
+    <t>优点：不需要记录每一行的变化，减少了binlog日志量，节约了IO，提高性能。(相比row能节约多少性能 与日志量，这个取决于应用的SQL情况，正常同一条记录修改或者插入row格式所产生的日志量还小于Statement产生的日志量，</t>
+  </si>
+  <si>
+    <t>但是考虑到如果带条 件的update操作，以及整表删除，alter表等操作，ROW格式会产生大量日志，因此在考虑是否使用ROW格式日志时应该跟据应用的实际情况，其所 产生的日志量会增加多少，以及带来的IO性能问题。)</t>
+  </si>
+  <si>
+    <t>缺点：由于记录的只是执行语句，为了这些语句能在slave上正确运行，因此还必须记录每条语句在执行的时候的 一些相关信息，以保证所有语句能在slave得到和在master端执行时候相同 的结果。另外mysql 的复制,</t>
+  </si>
+  <si>
+    <t>像一些特定函数功能，slave可与master上要保持一致会有很多相关问题(如sleep()函数， last_insert_id()，以及user-defined functions(udf)会出现问题).</t>
+  </si>
+  <si>
+    <t>使用以下函数的语句也无法被复制：</t>
+  </si>
+  <si>
+    <t>* LOAD_FILE()</t>
+  </si>
+  <si>
+    <t>* UUID()</t>
+  </si>
+  <si>
+    <t>* USER()</t>
+  </si>
+  <si>
+    <t>* FOUND_ROWS()</t>
+  </si>
+  <si>
+    <t>* SYSDATE() (除非启动时启用了 --sysdate-is-now 选项)</t>
+  </si>
+  <si>
+    <t>同时在INSERT ...SELECT 会产生比 RBR 更多的行级锁</t>
+  </si>
+  <si>
+    <t>2.Row:不记录sql语句上下文相关信息，仅保存哪条记录被修改。</t>
+  </si>
+  <si>
+    <t>优点： binlog中可以不记录执行的sql语句的上下文相关的信息，仅需要记录那一条记录被修改成什么了。所以rowlevel的日志内容会非常清楚的记录下 每一行数据修改的细节。而且不会出现某些特定情况下的存储过程，或function，以及trigger的调用和触发无法被正确复制的问题</t>
+  </si>
+  <si>
+    <t>缺点:所有的执行的语句当记录到日志中的时候，都将以每行记录的修改来记录，这样可能会产生大量的日志内容,比 如一条update语句，修改多条记录，则binlog中每一条修改都会有记录，这样造成binlog日志量会很大，特别是当执行alter table之类的语句的时候，</t>
+  </si>
+  <si>
+    <t>由于表结构修改，每条记录都发生改变，那么该表每一条记录都会记录到日志中。</t>
+  </si>
+  <si>
+    <t>3.Mixedlevel: 是以上两种level的混合使用，一般的语句修改使用statment格式保存binlog，如一些函数，statement无法完成主从复制的操作，则 采用row格式保存binlog,MySQL会根据执行的每一条具体的sql语句来区分对待记录的日志形式，</t>
+  </si>
+  <si>
+    <t>也就是在Statement和Row之间选择 一种.新版本的MySQL中队row level模式也被做了优化，并不是所有的修改都会以row level来记录，像遇到表结构变更的时候就会以statement模式来记录。至于update或者delete等修改数据的语句，还是会记录所有行的变更。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2)、适用场景</t>
+  </si>
+  <si>
+    <t>在一条 SQL 操作了多行数据时， statement 更节省空间， row 更占用空间。但是 row模式更可靠。</t>
+  </si>
+  <si>
+    <t>(3)、结合第一个问题，每一种日志格式在复制中的优劣</t>
+  </si>
+  <si>
+    <t>Statement 可能占用空间会相对小一些，传送到 slave 的时间可能也短，但是没有 row模式的可靠。 Row 模式在操作多行数据时更占用空间， 但是可靠。</t>
+  </si>
+  <si>
+    <t>下MySQL数据库cpu飙升到500%的话他怎么处理？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先用操作系统命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> top </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令观察是不是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysqld </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占用导致的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>如果不是，找出占用高的进程，并进行相关处理。</t>
+  </si>
+  <si>
+    <t>如果是 mysqld 造成的， show processlist，看看里面跑的 session 情况，是不是有消耗资源的 sql 在运行。找出消耗高的 sql，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看看执行计划是否准确，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否缺失，或者实在是数据量太大造成。一般来说，肯定要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掉这些线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时观察</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cpu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用率是否下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，等进行相应的调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如说加索引、改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、改内存参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后，再重新跑这些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也有可能是每个 sql 消耗资源并不多，但是突然之间，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有大量的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> session </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连进来导致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cpu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飙升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这种情况就需要跟应用一起来分析为何连接数会激增，再做出相应的调整，比如说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制连接数等</t>
+    </r>
+  </si>
+  <si>
+    <t>profile的意义以及使用场景</t>
+  </si>
+  <si>
+    <t>Profile 用来分析 sql 性能的消耗分布情况。当用 explain 无法解决慢 SQL 的时候，需要用profile 来对 sql 进行更细致的分析，找出 sql 所花的时间大部分消耗在哪个部分，确认 sql的性能瓶颈。</t>
+  </si>
+  <si>
+    <t>show profile和show Profiles都是不建议使用的，在mysql后期的版本中可能会被删除；官网建议使用Performance Schema</t>
+  </si>
+  <si>
+    <t>explain 中的索引问题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句有没有使用上了索引，有没有做全表扫描，这都可以通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>explain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令来查看。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Explain 结果中，一般来说，要看到尽量用 index(type 为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 等， key 列有值)，避免使用全表扫描(type 显式为 ALL)。比如说有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 条件且选择性不错的列，需要建立索引。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">被驱动表的连接列，也需要建立索引。被驱动表的连接列也可能会跟 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 条件列一起建立联合索引。当有排序或者 group by 的需求时，也可以考虑建立索引来达到直接排序和汇总的需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>sql优化</t>
+  </si>
+  <si>
+    <t>id:每个被独立执行的操作的标志，表示对象被操作的顺序。一般来说， id 值大，先被执行；如果 id 值相同，则顺序从上到下。</t>
+  </si>
+  <si>
+    <t>select_type：查询中每个 select 子句的类型。</t>
+  </si>
+  <si>
+    <t>table:名字，被操作的对象名称，通常的表名(或者别名)，但是也有其他格式。</t>
+  </si>
+  <si>
+    <t>partitions:匹配的分区信息。</t>
+  </si>
+  <si>
+    <t>type:join 类型。</t>
+  </si>
+  <si>
+    <t>possible_keys：列出可能会用到的索引。</t>
+  </si>
+  <si>
+    <t>key:实际用到的索引。</t>
+  </si>
+  <si>
+    <t>key_len:用到的索引键的平均长度，单位为字节。</t>
+  </si>
+  <si>
+    <t>ref:表示本行被操作的对象的参照对象，可能是一个常量用 const 表示，也可能是其他表的</t>
+  </si>
+  <si>
+    <t>key 指向的对象，比如说驱动表的连接列。</t>
+  </si>
+  <si>
+    <t>rows:估计每次需要扫描的行数。</t>
+  </si>
+  <si>
+    <t>filtered:rows*filtered/100 表示该步骤最后得到的行数(估计值)。</t>
+  </si>
+  <si>
+    <t>备份计划，mysqldump以及xtranbackup的实现原理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备份计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视库的大小来定，一般来说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100G </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内的库，可以考虑使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysqldump </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysqldump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更加轻巧灵活，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备份时间选在业务低峰期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以每天进行都进行全量备份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(mysqldump </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备份出来的文件比较小，压缩之后更小)。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100G </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上的库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以考虑用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xtranbackup </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备份速度明显要比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysqldump </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。一般是选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一周一个全备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其余每天进行增量备份，备份时间为业务低峰期。</t>
+    </r>
+  </si>
+  <si>
+    <t>(2)、备份恢复时间</t>
+  </si>
+  <si>
+    <t>物理备份恢复快，逻辑备份恢复慢</t>
+  </si>
+  <si>
+    <t>这里跟机器，尤其是硬盘的速率有关系，以下列举几个仅供参考</t>
+  </si>
+  <si>
+    <t>20G的2分钟（mysqldump）</t>
+  </si>
+  <si>
+    <t>80G的30分钟(mysqldump)</t>
+  </si>
+  <si>
+    <t>111G的30分钟（mysqldump)</t>
+  </si>
+  <si>
+    <t>288G的3小时（xtra)</t>
+  </si>
+  <si>
+    <t>3T的4小时（xtra)</t>
+  </si>
+  <si>
+    <t>逻辑导入时间一般是备份时间的5倍以上</t>
+  </si>
+  <si>
+    <t>(3)、备份恢复失败如何处理</t>
+  </si>
+  <si>
+    <t>首先在恢复之前就应该做足准备工作，避免恢复的时候出错。比如说备份之后的有效性检查、权限检查、空间检查等。如果万一报错，再根据报错的提示来进行相应的调整。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4)、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysqldump和xtrabackup实现原理</t>
+    </r>
+  </si>
+  <si>
+    <t>mysqldump</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">mysqldump </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属于逻辑备份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">--single-transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选项可以进行一致性备份。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后台进程会先设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> session </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事务隔离级别为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RR(SET SESSION TRANSACTION ISOLATION LEVELREPEATABLE READ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后显式开启一个事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(START TRANSACTION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/*!40100 WITH CONSISTENTSNAPSHOT */</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这样就保证了该事务里读到的数据都是事务事务时候的快照。之后再把表的数据读取出来。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--master-data=</t>
     </r>
     <r>
       <rPr>
@@ -430,389 +1944,6 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 之前， undo 只能存放在 ibdata*文件里面， </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800080"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 之后，可以通过设置 innodb_undo_tablespaces 参数把 undo log 存放在 ibdata*之外。</t>
-    </r>
-  </si>
-  <si>
-    <t>(3)、事务是如何通过日志来实现的，说得越深入越好</t>
-  </si>
-  <si>
-    <t>基本流程如下：</t>
-  </si>
-  <si>
-    <t>因为事务在修改页时，要先记 undo，在记 undo 之前要记 undo 的 redo， 然后修改数据页，再记数据页修改的 redo。 Redo（里面包括 undo 的修改） 一定要比数据页先持久化到磁盘。 当事务需要回滚时，因为有 undo，可以把数据页回滚到前镜像的</t>
-  </si>
-  <si>
-    <t>状态，崩溃恢复时，如果 redo log 中事务没有对应的 commit 记录，那么需要用 undo把该事务的修改回滚到事务开始之前。 如果有 commit 记录，就用 redo 前滚到该事务完成时并提交掉。</t>
-  </si>
-  <si>
-    <t>MySQL binlog的几种日志录入格式以及区别</t>
-  </si>
-  <si>
-    <t>(1)、 各种日志格式的涵义</t>
-  </si>
-  <si>
-    <t>1.Statement：每一条会修改数据的sql都会记录在binlog中。</t>
-  </si>
-  <si>
-    <t>优点：不需要记录每一行的变化，减少了binlog日志量，节约了IO，提高性能。(相比row能节约多少性能 与日志量，这个取决于应用的SQL情况，正常同一条记录修改或者插入row格式所产生的日志量还小于Statement产生的日志量，</t>
-  </si>
-  <si>
-    <t>但是考虑到如果带条 件的update操作，以及整表删除，alter表等操作，ROW格式会产生大量日志，因此在考虑是否使用ROW格式日志时应该跟据应用的实际情况，其所 产生的日志量会增加多少，以及带来的IO性能问题。)</t>
-  </si>
-  <si>
-    <t>缺点：由于记录的只是执行语句，为了这些语句能在slave上正确运行，因此还必须记录每条语句在执行的时候的 一些相关信息，以保证所有语句能在slave得到和在master端执行时候相同 的结果。另外mysql 的复制,</t>
-  </si>
-  <si>
-    <t>像一些特定函数功能，slave可与master上要保持一致会有很多相关问题(如sleep()函数， last_insert_id()，以及user-defined functions(udf)会出现问题).</t>
-  </si>
-  <si>
-    <t>使用以下函数的语句也无法被复制：</t>
-  </si>
-  <si>
-    <t>* LOAD_FILE()</t>
-  </si>
-  <si>
-    <t>* UUID()</t>
-  </si>
-  <si>
-    <t>* USER()</t>
-  </si>
-  <si>
-    <t>* FOUND_ROWS()</t>
-  </si>
-  <si>
-    <t>* SYSDATE() (除非启动时启用了 --sysdate-is-now 选项)</t>
-  </si>
-  <si>
-    <t>同时在INSERT ...SELECT 会产生比 RBR 更多的行级锁</t>
-  </si>
-  <si>
-    <t>2.Row:不记录sql语句上下文相关信息，仅保存哪条记录被修改。</t>
-  </si>
-  <si>
-    <t>优点： binlog中可以不记录执行的sql语句的上下文相关的信息，仅需要记录那一条记录被修改成什么了。所以rowlevel的日志内容会非常清楚的记录下 每一行数据修改的细节。而且不会出现某些特定情况下的存储过程，或function，以及trigger的调用和触发无法被正确复制的问题</t>
-  </si>
-  <si>
-    <t>缺点:所有的执行的语句当记录到日志中的时候，都将以每行记录的修改来记录，这样可能会产生大量的日志内容,比 如一条update语句，修改多条记录，则binlog中每一条修改都会有记录，这样造成binlog日志量会很大，特别是当执行alter table之类的语句的时候，</t>
-  </si>
-  <si>
-    <t>由于表结构修改，每条记录都发生改变，那么该表每一条记录都会记录到日志中。</t>
-  </si>
-  <si>
-    <t>3.Mixedlevel: 是以上两种level的混合使用，一般的语句修改使用statment格式保存binlog，如一些函数，statement无法完成主从复制的操作，则 采用row格式保存binlog,MySQL会根据执行的每一条具体的sql语句来区分对待记录的日志形式，</t>
-  </si>
-  <si>
-    <t>也就是在Statement和Row之间选择 一种.新版本的MySQL中队row level模式也被做了优化，并不是所有的修改都会以row level来记录，像遇到表结构变更的时候就会以statement模式来记录。至于update或者delete等修改数据的语句，还是会记录所有行的变更。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (2)、适用场景</t>
-  </si>
-  <si>
-    <t>在一条 SQL 操作了多行数据时， statement 更节省空间， row 更占用空间。但是 row模式更可靠。</t>
-  </si>
-  <si>
-    <t>(3)、结合第一个问题，每一种日志格式在复制中的优劣</t>
-  </si>
-  <si>
-    <t>Statement 可能占用空间会相对小一些，传送到 slave 的时间可能也短，但是没有 row模式的可靠。 Row 模式在操作多行数据时更占用空间， 但是可靠。</t>
-  </si>
-  <si>
-    <t>下MySQL数据库cpu飙升到500%的话他怎么处理？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">当 cpu 飙升到 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800080"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%时，先用操作系统命令 top 命令观察是不是 mysqld 占用导致的，如果不是，找出占用高的进程，并进行相关处理。如果是 mysqld 造成的， show processlist，看看里面跑的 session 情况，是不是有消耗资源的 sql 在运行。找出消耗高的 sql，</t>
-    </r>
-  </si>
-  <si>
-    <t>看看执行计划是否准确， index 是否缺失，或者实在是数据量太大造成。一般来说，肯定要 kill 掉这些线程(同时观察 cpu 使用率是否下降)，等进行相应的调整(比如说加索引、改 sql、改内存参数)之后，再重新跑这些 SQL。也有可能是每个 sql 消耗资源并不多，但是突然之间，</t>
-  </si>
-  <si>
-    <t>有大量的 session 连进来导致 cpu 飙升，这种情况就需要跟应用一起来分析为何连接数会激增，再做出相应的调整，比如说限制连接数等</t>
-  </si>
-  <si>
-    <t>sql优化</t>
-  </si>
-  <si>
-    <t>id:每个被独立执行的操作的标志，表示对象被操作的顺序。一般来说， id 值大，先被执行；如果 id 值相同，则顺序从上到下。</t>
-  </si>
-  <si>
-    <t>select_type：查询中每个 select 子句的类型。</t>
-  </si>
-  <si>
-    <t>table:名字，被操作的对象名称，通常的表名(或者别名)，但是也有其他格式。</t>
-  </si>
-  <si>
-    <t>partitions:匹配的分区信息。</t>
-  </si>
-  <si>
-    <t>type:join 类型。</t>
-  </si>
-  <si>
-    <t>possible_keys：列出可能会用到的索引。</t>
-  </si>
-  <si>
-    <t>key:实际用到的索引。</t>
-  </si>
-  <si>
-    <t>key_len:用到的索引键的平均长度，单位为字节。</t>
-  </si>
-  <si>
-    <t>ref:表示本行被操作的对象的参照对象，可能是一个常量用 const 表示，也可能是其他表的</t>
-  </si>
-  <si>
-    <t>key 指向的对象，比如说驱动表的连接列。</t>
-  </si>
-  <si>
-    <t>rows:估计每次需要扫描的行数。</t>
-  </si>
-  <si>
-    <t>filtered:rows*filtered/100 表示该步骤最后得到的行数(估计值)。</t>
-  </si>
-  <si>
-    <t>profile的意义以及使用场景</t>
-  </si>
-  <si>
-    <t>Profile 用来分析 sql 性能的消耗分布情况。当用 explain 无法解决慢 SQL 的时候，需要用profile 来对 sql 进行更细致的分析，找出 sql 所花的时间大部分消耗在哪个部分，确认 sql的性能瓶颈。</t>
-  </si>
-  <si>
-    <t>explain 中的索引问题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Explain 结果中，一般来说，要看到尽量用 index(type 为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ref</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 等， key 列有值)，避免使用全表扫描(type 显式为 ALL)。比如说有 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 条件且选择性不错的列，需要建立索引。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">被驱动表的连接列，也需要建立索引。被驱动表的连接列也可能会跟 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 条件列一起建立联合索引。当有排序或者 group by 的需求时，也可以考虑建立索引来达到直接排序和汇总的需求。</t>
-    </r>
-  </si>
-  <si>
-    <t>备份计划，mysqldump以及xtranbackup的实现原理</t>
-  </si>
-  <si>
-    <t>(1)、备份计划</t>
-  </si>
-  <si>
-    <t>视库的大小来定，一般来说 100G 内的库，可以考虑使用 mysqldump 来做，因为 mysqldump更加轻巧灵活，备份时间选在业务低峰期，可以每天进行都进行全量备份(mysqldump 备份</t>
-  </si>
-  <si>
-    <t>出来的文件比较小，压缩之后更小)。100G 以上的库，可以考虑用 xtranbackup 来做，备份速度明显要比 mysqldump 要快。一般是选择一周一个全备，其余每天进行增量备份，备份时间为业务低峰期。</t>
-  </si>
-  <si>
-    <t>(2)、备份恢复时间</t>
-  </si>
-  <si>
-    <t>物理备份恢复快，逻辑备份恢复慢</t>
-  </si>
-  <si>
-    <t>这里跟机器，尤其是硬盘的速率有关系，以下列举几个仅供参考</t>
-  </si>
-  <si>
-    <t>20G的2分钟（mysqldump）</t>
-  </si>
-  <si>
-    <t>80G的30分钟(mysqldump)</t>
-  </si>
-  <si>
-    <t>111G的30分钟（mysqldump)</t>
-  </si>
-  <si>
-    <t>288G的3小时（xtra)</t>
-  </si>
-  <si>
-    <t>3T的4小时（xtra)</t>
-  </si>
-  <si>
-    <t>逻辑导入时间一般是备份时间的5倍以上</t>
-  </si>
-  <si>
-    <t>(3)、备份恢复失败如何处理</t>
-  </si>
-  <si>
-    <t>首先在恢复之前就应该做足准备工作，避免恢复的时候出错。比如说备份之后的有效性检查、权限检查、空间检查等。如果万一报错，再根据报错的提示来进行相应的调整。</t>
-  </si>
-  <si>
-    <t>(4)、mysqldump和xtrabackup实现原理</t>
-  </si>
-  <si>
-    <t>mysqldump</t>
-  </si>
-  <si>
-    <t>mysqldump 属于逻辑备份。加入--single-transaction 选项可以进行一致性备份。后台进程会先设置 session 的事务隔离级别为 RR(SET SESSION TRANSACTION ISOLATION LEVELREPEATABLE READ)，</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">之后显式开启一个事务(START TRANSACTION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/*!40100 WITH CONSISTENTSNAPSHOT */</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)，这样就保证了该事务里读到的数据都是事务事务时候的快照。之后再把表的数据读取出来。 如果加上--master-data=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800080"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -822,7 +1953,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 的话，在刚开始的时候还会加一个数据库的读锁</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的话，在刚开始的时候还会加一个数据库的读锁</t>
     </r>
   </si>
   <si>
@@ -1471,19 +2611,159 @@
     <t>MySQL联合索引</t>
   </si>
   <si>
-    <t>1、联合索引是两个或更多个列上的索引。</t>
-  </si>
-  <si>
-    <t>对于联合索引:Mysql从左到右的使用索引中的字段，一个查询可以只使用索引中的一部份，但只能是最左侧部分。</t>
-  </si>
-  <si>
-    <t>例如索引是key index (a,b,c). 可以支持a 、 a,b 、 a,b,c 3种组合进行查找，但不支持 b,c进行查找 .当最左侧字段是常量引用时，索引就十分有效。</t>
-  </si>
-  <si>
-    <t>2、利用索引中的附加列，您可以缩小搜索的范围，但使用一个具有两列的索引不同于使用两个单独的索引。</t>
-  </si>
-  <si>
-    <t>复合索引的结构与电话簿类似，人名由姓和名构成，电话簿首先按姓氏对进行排序，然后按名字对有相同姓氏的人进行排序。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联合索引是两个或更多个列上的索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对于联合索引:Mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从左到右的使用索引中的字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一个查询可以只使用索引中的一部份，但只能是最左侧部分。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>索引是key index (a,b,c). 可以支持a 、 a,b 、 a,b,c 3种组合进行查找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但不支持 b,c进行查找 .当最左侧字段是常量引用时，索引就十分有效。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利用索引中的附加列，您可以缩小搜索的范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但使用一个具有两列的索引不同于使用两个单独的索引。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复合索引的结构与电话簿类似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，人名由姓和名构成，电话簿首先按姓氏对进行排序，然后按名字对有相同姓氏的人进行排序。</t>
+    </r>
   </si>
   <si>
     <t>如果您知道姓，电话簿将非常有用；如果您知道姓和名，电话簿则更为有用，但如果您只知道名不知道姓，电话簿将没有用处。</t>
@@ -1498,7 +2778,58 @@
     <t>经常插入、删除、修改的表</t>
   </si>
   <si>
-    <t>数据重复且分布平均的表字段，假如一个表有10万行记录，有一个字段A只有T和F两种值，且每个值的分布概率大约为50%，那么对这种表A字段建索引一般不会提高数据库的查询速度。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据重复且分布平均的表字段，假如一个表有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10万行记录，有一个字段A只有T和F两种值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，且每个值的分布概率大约为50%，那么对这种表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A字段建索引一般不会提高数据库的查询速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>经常和主字段一块查询但主字段索引值比较多的表字段</t>
@@ -1507,16 +2838,118 @@
     <t>什么是表分区？</t>
   </si>
   <si>
-    <t>表分区，是指根据一定规则，将数据库中的一张表分解成多个更小的，容易管理的部分。从逻辑上看，只有一张表，但是底层却是由多个物理分区组成。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表分区，是指根据一定规则，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将数据库中的一张表分解成多个更小的，容易管理的部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从逻辑上看，只有一张表，但是底层却是由多个物理分区组成。</t>
+    </r>
   </si>
   <si>
     <t>表分区与分表的区别</t>
   </si>
   <si>
-    <t>分表：指的是通过一定规则，将一张表分解成多张不同的表。比如将用户订单记录根据时间成多个表。</t>
-  </si>
-  <si>
-    <t>分表与分区的区别在于：分区从逻辑上来讲只有一张表，而分表则是将一张表分解成多张表。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分表：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指的是通过一定规则，将一张表分解成多张不同的表。比如将用户订单记录根据时间成多个表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分表与分区的区别在于：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分区从逻辑上来讲只有一张表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而分表则是将一张表分解成多张表。</t>
+    </r>
   </si>
   <si>
     <t>表分区有什么好处？</t>
@@ -1738,10 +3171,46 @@
     <t>关于MVVC</t>
   </si>
   <si>
-    <t xml:space="preserve">MySQL InnoDB存储引擎，实现的是基于多版本的并发控制协议——MVCC (Multi-Version Concurrency Control) </t>
-  </si>
-  <si>
-    <t>注：与MVCC相对的，是基于锁的并发控制，Lock-Based Concurrency Control</t>
+    <r>
+      <t>MySQL InnoDB存储引擎，实现的是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多版本的并发控制协议——MVCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Multi-Version Concurrency Control)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与MVCC相对的，是基于锁的并发控制，Lock-Based Concurrency Control</t>
+    </r>
   </si>
   <si>
     <t>MVCC最大的好处：读不加锁，读写不冲突。在读多写少的OLTP应用中，读写不冲突是非常重要的，极大的增加了系统的并发性能，现阶段几乎所有的RDBMS，都支持了MVCC。</t>
@@ -1826,6 +3295,39 @@
     <t>当前读 (current read)：读取的是记录的最新版本，并且，当前读返回的记录，都会加上锁，保证其他事务不会再并发修改这条记录</t>
   </si>
   <si>
+    <t>局部性原理</t>
+  </si>
+  <si>
+    <t>在我们一个程序里，有可能一行代码，只要去一个字节的数据，但是计算机会用局部性原理取出相邻的数据保存到缓存中，虽然现在只要取一个字节的数据，但是可能后面用到这个字节相邻的其他字节数据</t>
+  </si>
+  <si>
+    <t>如果下次用到了相邻的数据，直接从缓存中取出来就可以了</t>
+  </si>
+  <si>
+    <t>如果没有取出相邻的字段，下一次还要使用到相邻字段的话，接下来执行指令又要从磁盘中去取数据</t>
+  </si>
+  <si>
+    <t>每次取出一页的数据，页大小为16KB</t>
+  </si>
+  <si>
+    <t>Innodb数据页结构解析B+TREE</t>
+  </si>
+  <si>
+    <t>例如MySQL在创建表的时候，内存中直接开一个页，第一页，空的</t>
+  </si>
+  <si>
+    <t>然后在第一页中加数据，加到数据放不下，此时MySQL会将第一页复制一份称为新的第一页，再创建空的第二页，最后头把老的第一页改为目录页</t>
+  </si>
+  <si>
+    <t>这样的好处可以保证起始页是一直不变的，可以缓存起来，查找更快</t>
+  </si>
+  <si>
+    <t>聚集索引</t>
+  </si>
+  <si>
+    <t>索引和树是合在一起的</t>
+  </si>
+  <si>
     <t>行级锁定的优/缺点</t>
   </si>
   <si>
@@ -1871,7 +3373,30 @@
     <t>4 为搜索字段建索引</t>
   </si>
   <si>
-    <t>5 使用 ENUM 而不是 VARCHAR。如果你有一个字段，比如“性别”，“国家”，“民族”，“状态”或“部门”，你知道这些字段的取值是有限而且固定的，那么，你应该使用 ENUM 而不是VARCHAR</t>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用 ENUM 而不是 VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如果你有一个字段，比如“性别”，“国家”，“民族”，“状态”或“部门”，你知道这些字段的取值是有限而且固定的，那么，你应该使用 ENUM 而不是VARCHAR</t>
+    </r>
   </si>
   <si>
     <t>6 Prepared StatementsPrepared Statements很像存储过程，是一种运行在后台的SQL语句集合，我们可以从使用 prepared statements 获得很多好处，无论是性能问题还是安全问题。</t>
@@ -2452,12 +3977,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +4005,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -2511,10 +4056,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2532,75 +4101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2609,11 +4109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2633,6 +4139,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2640,16 +4185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2670,7 +4215,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,13 +4317,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,49 +4359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,37 +4377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2802,55 +4395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,6 +4406,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2875,54 +4449,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,13 +4477,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,10 +4514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2981,137 +4526,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3127,6 +4672,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3139,7 +4687,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -3209,13 +4766,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3233,7 +4790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="52206525"/>
+          <a:off x="828675" y="56664225"/>
           <a:ext cx="5972175" cy="3067050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3251,13 +4808,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3275,7 +4832,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="55702200"/>
+          <a:off x="828675" y="60159900"/>
           <a:ext cx="6076950" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3293,13 +4850,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3317,7 +4874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="63017400"/>
+          <a:off x="1381125" y="67475100"/>
           <a:ext cx="4705350" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3335,13 +4892,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3359,7 +4916,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="65427225"/>
+          <a:off x="1419225" y="69884925"/>
           <a:ext cx="5324475" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3377,13 +4934,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3401,8 +4958,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="44919900"/>
+          <a:off x="1371600" y="49377600"/>
           <a:ext cx="8858250" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="19269075"/>
+          <a:ext cx="7191375" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="85820250"/>
+          <a:ext cx="4305300" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3705,13 +5346,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:E593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="G506" sqref="G506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -3932,113 +5573,129 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="4" t="s">
+    <row r="50" spans="4:5">
+      <c r="D50" s="4"/>
+      <c r="E50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="4" t="s">
+    <row r="52" spans="4:5">
+      <c r="D52" s="4"/>
+      <c r="E52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="2" t="s">
+    <row r="57" spans="3:4">
+      <c r="C57" s="6"/>
+      <c r="D57" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="2" t="s">
+    <row r="58" spans="3:4">
+      <c r="C58" s="6"/>
+      <c r="D58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="2" t="s">
+    <row r="59" spans="3:4">
+      <c r="C59" s="6"/>
+      <c r="D59" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="2" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="6"/>
+      <c r="D60" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="2" t="s">
+    <row r="61" spans="3:4">
+      <c r="C61" s="6"/>
+      <c r="D61" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
+    <row r="62" spans="3:4">
+      <c r="C62" s="6"/>
+      <c r="D62" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="2" t="s">
+    <row r="64" spans="3:4">
+      <c r="C64" s="6"/>
+      <c r="D64" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="2" t="s">
+    <row r="65" spans="3:4">
+      <c r="C65" s="6"/>
+      <c r="D65" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="2" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4052,73 +5709,73 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="4" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="4" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="2" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="2" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4127,1480 +5784,1638 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="2" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="2" t="s">
+    <row r="99" spans="2:3">
+      <c r="B99" s="6"/>
+      <c r="C99" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+    <row r="100" spans="2:3">
+      <c r="B100" s="6"/>
+      <c r="C100" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="2" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="6" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="4" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="4" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="4" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="2" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="2" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="2" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="4" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="4" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="4" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="2" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="4" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="4" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="4" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2" t="e">
+    <row r="145" spans="3:3">
+      <c r="C145" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="e">
         <f>--skip-extended-insert</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="2" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
-      <c r="C164" s="2" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="2" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="2" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="3:3">
-      <c r="C167" s="2" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="2" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="2" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="2" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="2" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="2" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="2" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="2" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
-      <c r="C177" s="4" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3">
-      <c r="C178" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3">
-      <c r="C179" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3">
-      <c r="C180" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3">
-      <c r="C181" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3">
-      <c r="C182" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3">
-      <c r="C185" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3">
-      <c r="C186" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3">
-      <c r="C187" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="3:3">
       <c r="C188" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3">
-      <c r="C189" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3">
-      <c r="C194" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="2" t="s">
+    <row r="203" spans="3:3">
+      <c r="C203" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
-      <c r="C197" s="4" t="s">
+    <row r="204" spans="3:3">
+      <c r="C204" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="3:3">
-      <c r="C198" s="4" t="s">
+    <row r="205" spans="3:3">
+      <c r="C205" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="199" spans="3:3">
-      <c r="C199" s="4" t="s">
+    <row r="206" spans="3:3">
+      <c r="C206" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
-      <c r="C200" s="4" t="s">
+    <row r="207" spans="3:3">
+      <c r="C207" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="3:3">
-      <c r="C201" s="4" t="s">
+    <row r="208" spans="3:3">
+      <c r="C208" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="2" t="s">
+    <row r="211" spans="3:3">
+      <c r="C211" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
+    <row r="212" spans="3:3">
+      <c r="C212" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="2" t="s">
+    <row r="213" spans="3:3">
+      <c r="C213" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1" t="s">
+    <row r="214" spans="3:3">
+      <c r="C214" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="4" t="s">
+    <row r="215" spans="3:3">
+      <c r="C215" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="4" t="s">
+    <row r="216" spans="3:3">
+      <c r="C216" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="4" t="s">
+    <row r="217" spans="3:3">
+      <c r="C217" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1" t="s">
+    <row r="218" spans="3:3">
+      <c r="C218" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="4" t="s">
+    <row r="219" spans="3:3">
+      <c r="C219" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="2" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="2" t="s">
+    <row r="241" spans="2:2">
+      <c r="B241" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="2" t="s">
+    <row r="242" spans="2:2">
+      <c r="B242" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="2" t="s">
+    <row r="243" spans="2:2">
+      <c r="B243" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="2" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="2" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="2" t="s">
+    <row r="247" spans="2:2">
+      <c r="B247" s="2" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="1" t="s">
+    <row r="256" spans="2:2">
+      <c r="B256" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3">
-      <c r="C252" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="253" spans="3:3">
-      <c r="C253" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="254" spans="3:3">
-      <c r="C254" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="255" spans="3:3">
-      <c r="C255" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
-      <c r="C258" s="4" t="s">
+    <row r="264" spans="2:2">
+      <c r="B264" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="259" spans="3:3">
-      <c r="C259" s="4" t="s">
+    <row r="265" spans="2:2">
+      <c r="B265" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="260" spans="3:3">
-      <c r="C260" s="4" t="s">
+    <row r="266" spans="2:2">
+      <c r="B266" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
-      <c r="C261" s="4" t="s">
+    <row r="267" spans="2:2">
+      <c r="B267" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="3:3">
-      <c r="C262" s="4" t="s">
+    <row r="268" spans="2:2">
+      <c r="B268" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="1" t="s">
+    <row r="270" spans="2:2">
+      <c r="B270" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="2" t="s">
+    <row r="271" spans="2:2">
+      <c r="B271" s="2" t="s">
         <v>220</v>
       </c>
     </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="286" spans="3:3">
-      <c r="C286" s="2" t="s">
-        <v>221</v>
+      <c r="C286" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="287" spans="3:3">
-      <c r="C287" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="290" spans="3:3">
-      <c r="C290" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="295" spans="3:3">
-      <c r="C295" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="296" spans="3:3">
-      <c r="C296" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="1" t="s">
+      <c r="C287" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="2" t="s">
+    <row r="288" spans="3:3">
+      <c r="C288" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="2" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="1" t="s">
+    <row r="311" spans="2:2">
+      <c r="B311" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="2" t="s">
+    <row r="312" spans="3:3">
+      <c r="C312" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="1" t="s">
+    <row r="313" spans="3:3">
+      <c r="C313" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="2" t="s">
+    <row r="315" spans="2:2">
+      <c r="B315" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="2" t="s">
+    <row r="316" spans="3:3">
+      <c r="C316" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="2" t="s">
+    <row r="318" spans="2:2">
+      <c r="B318" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="2" t="s">
+    <row r="320" spans="2:2">
+      <c r="B320" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="3:3">
-      <c r="C357" s="2" t="s">
+    <row r="321" spans="3:3">
+      <c r="C321" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="358" spans="3:3">
-      <c r="C358" s="2" t="s">
+    <row r="322" spans="3:3">
+      <c r="C322" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="359" spans="3:3">
-      <c r="C359" s="2" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="360" spans="3:3">
-      <c r="C360" s="2" t="s">
+    <row r="325" spans="2:2">
+      <c r="B325" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="361" spans="3:3">
-      <c r="C361" s="2" t="s">
+    <row r="326" spans="2:2">
+      <c r="B326" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="362" spans="3:3">
-      <c r="C362" s="2" t="s">
+    <row r="327" spans="2:2">
+      <c r="B327" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="363" spans="3:3">
-      <c r="C363" s="2" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="364" spans="3:3">
-      <c r="C364" s="2" t="s">
+    <row r="330" spans="2:2">
+      <c r="B330" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="1" t="s">
+    <row r="350" spans="2:2">
+      <c r="B350" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="2" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3">
-      <c r="C381" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="399" spans="3:3">
-      <c r="C399" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="400" spans="3:3">
-      <c r="C400" s="2" t="s">
+    <row r="382" spans="2:2">
+      <c r="B382" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="2" t="s">
+    <row r="383" spans="3:3">
+      <c r="C383" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="403" spans="3:3">
-      <c r="C403" s="2" t="s">
+    <row r="384" spans="3:3">
+      <c r="C384" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="1" t="s">
+    <row r="385" spans="3:3">
+      <c r="C385" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="406" spans="2:2">
       <c r="B406" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3">
-      <c r="C408" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2">
-      <c r="B410" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="411" spans="3:3">
-      <c r="C411" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="412" spans="3:3">
-      <c r="C412" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2">
-      <c r="B416" s="2" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="428" spans="2:2">
       <c r="B428" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="2" t="s">
+    <row r="434" spans="3:3">
+      <c r="C434" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="430" spans="2:2">
-      <c r="B430" s="2" t="s">
+    <row r="436" spans="2:2">
+      <c r="B436" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="431" spans="2:2">
-      <c r="B431" s="2" t="s">
+    <row r="437" spans="3:3">
+      <c r="C437" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="1" t="s">
+    <row r="438" spans="3:3">
+      <c r="C438" s="2" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2">
-      <c r="B434" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2">
-      <c r="B436" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2">
-      <c r="B437" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="438" spans="2:2">
-      <c r="B438" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="2" t="s">
-        <v>290</v>
+      <c r="B441" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="442" spans="2:2">
       <c r="B442" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="1" t="s">
+    <row r="450" spans="2:2">
+      <c r="B450" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="445" spans="2:2">
-      <c r="B445" s="7" t="s">
+    <row r="451" spans="2:2">
+      <c r="B451" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="446" spans="2:2">
-      <c r="B446" s="7" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="7" t="s">
+    <row r="454" spans="2:2">
+      <c r="B454" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="448" spans="2:2">
-      <c r="B448" s="7" t="s">
+    <row r="455" spans="2:2">
+      <c r="B455" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="1" t="s">
+    <row r="456" spans="2:2">
+      <c r="B456" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="7" t="s">
+    <row r="457" spans="2:2">
+      <c r="B457" s="2" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="2" t="s">
+    <row r="463" spans="2:2">
+      <c r="B463" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="2" t="s">
+    <row r="464" spans="2:2">
+      <c r="B464" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="2" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="463" spans="3:3">
-      <c r="C463" s="6" t="s">
+    <row r="467" spans="2:2">
+      <c r="B467" s="2" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3">
-      <c r="C464" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="465" spans="3:3">
-      <c r="C465" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="468" spans="2:2">
       <c r="B468" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="2" t="s">
+    <row r="473" spans="2:2">
+      <c r="B473" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="1" t="s">
+    <row r="474" spans="2:2">
+      <c r="B474" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="2" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="473" spans="3:3">
-      <c r="C473" s="2" t="s">
+    <row r="477" spans="2:2">
+      <c r="B477" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="474" spans="3:3">
-      <c r="C474" s="2" t="s">
+    <row r="479" spans="2:2">
+      <c r="B479" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="475" spans="3:3">
-      <c r="C475" s="2" t="s">
+    <row r="481" spans="2:2">
+      <c r="B481" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="2" t="s">
+    <row r="483" spans="2:2">
+      <c r="B483" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="477" spans="3:3">
-      <c r="C477" s="2" t="s">
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="478" spans="3:3">
-      <c r="C478" s="2" t="s">
+    <row r="486" spans="2:2">
+      <c r="B486" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="479" spans="3:3">
-      <c r="C479" s="2" t="s">
+    <row r="487" spans="2:2">
+      <c r="B487" s="5" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3">
-      <c r="C480" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2">
-      <c r="B484" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="485" spans="2:2">
-      <c r="B485" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="488" spans="2:2">
       <c r="B488" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="489" spans="3:3">
-      <c r="C489" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="490" spans="2:2">
-      <c r="B490" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="2" t="s">
-        <v>331</v>
+      <c r="C489" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="494" spans="2:2">
       <c r="B494" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="1" t="s">
+    <row r="506" spans="2:2">
+      <c r="B506" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="498" spans="2:2">
-      <c r="B498" s="2" t="s">
+    <row r="507" spans="2:2">
+      <c r="B507" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
-      <c r="C499" s="6" t="s">
+    <row r="509" spans="1:1">
+      <c r="A509" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="500" spans="4:4">
-      <c r="D500" s="6" t="s">
+    <row r="510" spans="2:2">
+      <c r="B510" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="502" spans="3:3">
-      <c r="C502" s="6" t="s">
+    <row r="512" spans="1:1">
+      <c r="A512" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="504" spans="3:3">
-      <c r="C504" s="6" t="s">
+    <row r="513" spans="2:2">
+      <c r="B513" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="505" spans="4:4">
-      <c r="D505" s="6" t="s">
+    <row r="514" spans="3:3">
+      <c r="C514" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="506" spans="4:4">
-      <c r="D506" s="6" t="s">
+    <row r="515" spans="3:3">
+      <c r="C515" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="508" spans="3:3">
-      <c r="C508" s="6" t="s">
+    <row r="516" spans="3:3">
+      <c r="C516" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="510" spans="3:3">
-      <c r="C510" s="6" t="s">
+    <row r="517" spans="2:2">
+      <c r="B517" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="512" spans="2:2">
-      <c r="B512" s="2" t="s">
+    <row r="518" spans="3:3">
+      <c r="C518" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="513" spans="3:3">
-      <c r="C513" s="8" t="s">
+    <row r="519" spans="3:3">
+      <c r="C519" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="515" spans="3:3">
-      <c r="C515" s="8" t="s">
+    <row r="520" spans="3:3">
+      <c r="C520" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="517" spans="3:3">
-      <c r="C517" s="8" t="s">
+    <row r="521" spans="3:3">
+      <c r="C521" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="519" spans="3:3">
-      <c r="C519" s="6" t="s">
+    <row r="523" spans="1:1">
+      <c r="A523" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
-      <c r="A521" s="1" t="s">
+    <row r="524" spans="2:2">
+      <c r="B524" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="522" spans="2:2">
-      <c r="B522" s="2" t="s">
+    <row r="525" spans="2:2">
+      <c r="B525" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="523" spans="3:3">
-      <c r="C523" s="9" t="s">
+    <row r="526" spans="2:2">
+      <c r="B526" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="525" spans="3:3">
-      <c r="C525" s="9" t="s">
+    <row r="527" spans="2:2">
+      <c r="B527" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="527" spans="3:3">
-      <c r="C527" s="9" t="s">
+    <row r="528" spans="2:2">
+      <c r="B528" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="529" spans="3:3">
-      <c r="C529" s="9" t="s">
+    <row r="529" spans="2:2">
+      <c r="B529" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="531" spans="3:3">
-      <c r="C531" s="9" t="s">
+    <row r="530" spans="3:3">
+      <c r="C530" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="533" spans="3:3">
-      <c r="C533" s="9" t="s">
+    <row r="531" spans="2:2">
+      <c r="B531" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="535" spans="3:3">
-      <c r="C535" s="9" t="s">
+    <row r="532" spans="2:2">
+      <c r="B532" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="537" spans="3:3">
-      <c r="C537" s="9" t="s">
+    <row r="534" spans="1:1">
+      <c r="A534" s="1" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="540" spans="3:3">
-      <c r="C540" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="541" spans="3:3">
-      <c r="C541" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="543" spans="2:2">
-      <c r="B543" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="544" spans="3:3">
-      <c r="C544" s="2" t="s">
+      <c r="C540" s="10" t="s">
         <v>364</v>
       </c>
     </row>
+    <row r="541" spans="4:4">
+      <c r="D541" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
     <row r="545" spans="3:3">
-      <c r="C545" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="547" spans="2:2">
-      <c r="B547" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="548" spans="3:3">
-      <c r="C548" s="2" t="s">
+      <c r="C545" s="10" t="s">
         <v>367</v>
       </c>
     </row>
+    <row r="546" spans="4:4">
+      <c r="D546" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="547" spans="4:4">
+      <c r="D547" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
     <row r="549" spans="3:3">
-      <c r="C549" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="550" spans="3:3">
-      <c r="C550" s="2" t="s">
-        <v>369</v>
+      <c r="C549" s="10" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="551" spans="3:3">
-      <c r="C551" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="552" spans="3:3">
-      <c r="C552" s="2" t="s">
+      <c r="C551" s="10" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3">
+      <c r="C568" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3">
+      <c r="C570" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3">
+      <c r="C576" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3">
+      <c r="C578" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3">
+      <c r="C581" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3">
+      <c r="C582" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3">
+      <c r="C585" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3">
+      <c r="C589" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3">
+      <c r="C590" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3">
+      <c r="C591" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3">
+      <c r="C592" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3">
+      <c r="C593" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -982,7 +982,58 @@
     <t>如果不是，找出占用高的进程，并进行相关处理。</t>
   </si>
   <si>
-    <t>如果是 mysqld 造成的， show processlist，看看里面跑的 session 情况，是不是有消耗资源的 sql 在运行。找出消耗高的 sql，</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果是 mysqld 造成的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> show processlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，看看里面跑的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session 情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是不是有消耗资源的 sql 在运行。找出消耗高的 sql，</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3172,6 +3223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MySQL InnoDB存储引擎，实现的是基于</t>
     </r>
     <r>
@@ -3198,6 +3256,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注：</t>
     </r>
     <r>
@@ -3374,6 +3439,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">5 </t>
     </r>
     <r>
@@ -3979,8 +4051,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4064,18 +4136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4088,61 +4153,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4155,23 +4168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4194,7 +4191,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4215,7 +4287,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4227,31 +4317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4263,61 +4335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,7 +4377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4347,37 +4401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4389,13 +4425,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4411,10 +4483,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4425,15 +4495,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4453,11 +4514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4477,21 +4544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4506,6 +4558,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4514,10 +4586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4526,133 +4598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5348,8 +5420,8 @@
   <sheetPr/>
   <dimension ref="A1:E593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="G506" sqref="G506"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="P329" sqref="P329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5807,7 +5879,7 @@
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="6"/>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="5" t="s">
         <v>86</v>
       </c>
     </row>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="411">
   <si>
     <t>MySQL的复制原理以及流程</t>
   </si>
@@ -4042,6 +4042,42 @@
   </si>
   <si>
     <t>建立索引，最好建立在唯一和非空的字段上，建立太多的索引对后期插入、更新都存在一定的影响（考虑实际情况来创建）</t>
+  </si>
+  <si>
+    <t>主索引和二级索引区别，并创建一个二级索引</t>
+  </si>
+  <si>
+    <t>聚簇索引与非聚簇索引（也叫二级索引）</t>
+  </si>
+  <si>
+    <t>聚簇索引：将数据存储与索引放到了一块，找到索引也就找到了数据</t>
+  </si>
+  <si>
+    <t>非聚簇索引：将数据存储于索引分开结构，索引结构的叶子节点指向了数据的对应行，myisam通过key_buffer把索引先缓存到内存中，当需要访问数据时（通过索引访问数据），</t>
+  </si>
+  <si>
+    <t>在内存中直接搜索索引，然后通过索引找到磁盘相应数据，这也就是为什么索引不在key buffer命中时，速度慢的原因</t>
+  </si>
+  <si>
+    <t>innodb中，在聚簇索引之上创建的索引称之为辅助索引，辅助索引访问数据总是需要二次查找，</t>
+  </si>
+  <si>
+    <t>非聚簇索引都是辅助索引，像复合索引、前缀索引、唯一索引，辅助索引叶子节点存储的不再是行的物理位置，而是主键值</t>
+  </si>
+  <si>
+    <t>InnoDB使用的是聚簇索引，将主键组织到一棵B+树中，而行数据就储存在叶子节点上，若使用"where id = 14"这样的条件查找主键，</t>
+  </si>
+  <si>
+    <t>则按照B+树的检索算法即可查找到对应的叶节点，之后获得行数据。</t>
+  </si>
+  <si>
+    <t>若对Name列进行条件搜索，则需要两个步骤：</t>
+  </si>
+  <si>
+    <t>第一步在辅助索引B+树中检索Name，到达其叶子节点获取对应的主键。</t>
+  </si>
+  <si>
+    <t>第二步使用主键在主索引B+树种再执行一次B+树检索操作，最终到达叶子节点即可获取整行数据。（重点在于通过其他键需要建立辅助索引）</t>
   </si>
 </sst>
 </file>
@@ -4049,8 +4085,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -4128,16 +4164,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4146,59 +4188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4220,10 +4210,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4235,16 +4241,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4259,14 +4264,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4287,7 +4323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4299,7 +4353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,13 +4383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4329,7 +4419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4341,7 +4437,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4353,85 +4491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4444,30 +4504,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4490,15 +4526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4510,6 +4537,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4529,17 +4591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4558,26 +4614,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4586,10 +4622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4598,133 +4634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5128,6 +5164,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="105422700"/>
+          <a:ext cx="3276600" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5418,10 +5496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E593"/>
+  <dimension ref="A1:E614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="P329" sqref="P329"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="I619" sqref="I619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7488,6 +7566,66 @@
     <row r="593" spans="3:3">
       <c r="C593" s="2" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3">
+      <c r="C605" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3">
+      <c r="C608" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3">
+      <c r="C611" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3">
+      <c r="C612" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="613" spans="4:4">
+      <c r="D613" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="614" spans="4:4">
+      <c r="D614" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="24525" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3219,17 +3219,10 @@
     </r>
   </si>
   <si>
-    <t>关于MVVC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>关于MVCC</t>
+  </si>
+  <si>
+    <r>
       <t>MySQL InnoDB存储引擎，实现的是基于</t>
     </r>
     <r>
@@ -4085,10 +4078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4164,22 +4157,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4187,8 +4174,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4201,48 +4203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4264,14 +4226,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4285,11 +4255,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4302,7 +4280,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4323,7 +4316,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,19 +4406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4359,49 +4430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4419,37 +4466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4461,43 +4478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4517,11 +4510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4537,30 +4536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4594,8 +4569,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4614,6 +4598,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4622,10 +4615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4634,133 +4627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5498,8 +5491,8 @@
   <sheetPr/>
   <dimension ref="A1:E614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="I619" sqref="I619"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -3223,6 +3223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MySQL InnoDB存储引擎，实现的是基于</t>
     </r>
     <r>
@@ -4078,10 +4085,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4157,24 +4164,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4182,7 +4180,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4196,15 +4201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4219,14 +4218,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4240,10 +4270,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4255,47 +4301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4316,7 +4323,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4328,19 +4389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,13 +4419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4370,7 +4431,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4382,121 +4491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4507,6 +4514,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4521,6 +4537,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4551,54 +4606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4615,10 +4622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4627,133 +4634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5491,8 +5498,8 @@
   <sheetPr/>
   <dimension ref="A1:E614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A486" sqref="A486"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/MySql.xlsx
+++ b/MySql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="421">
   <si>
     <t>MySQL的复制原理以及流程</t>
   </si>
@@ -4078,6 +4078,36 @@
   </si>
   <si>
     <t>第二步使用主键在主索引B+树种再执行一次B+树检索操作，最终到达叶子节点即可获取整行数据。（重点在于通过其他键需要建立辅助索引）</t>
+  </si>
+  <si>
+    <t>mysql中关于bit,enum,tinyint三种数据类型的差别</t>
+  </si>
+  <si>
+    <t>ENUM棘手的问题</t>
+  </si>
+  <si>
+    <t>enum虽然可以存储字符串，但对于内部来说，还是以顺序进行索引，比如'a','b','c'，</t>
+  </si>
+  <si>
+    <t>我们也可以用索引值来获取值select * from tbl_name whre enum = 2，</t>
+  </si>
+  <si>
+    <t>这与select * from tbl_name where enum = 'b'等义）如果你看明白了这两句SQL为什么等义，</t>
+  </si>
+  <si>
+    <t>那么你也就可以了解为什么不主张用enum字段了。</t>
+  </si>
+  <si>
+    <t>比如一个enum字段的范围是('0','1','2','3','4','5')，而enum的枚举值对应的索引是从1开始的</t>
+  </si>
+  <si>
+    <t>，因此，insert into table (enum)values(1)，插入的并不是1，而是0。</t>
+  </si>
+  <si>
+    <t>是纯数值型，还是建议采用tinyint字段吧，毕竟它也只占一个字节，即使出现赃数据，</t>
+  </si>
+  <si>
+    <t>也可以被接受，不象enum，如果纯数字型范围，更改了索引，你就不知道你查询的值是否正确了）</t>
   </si>
 </sst>
 </file>
@@ -4087,8 +4117,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4165,7 +4195,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4186,39 +4307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4233,71 +4324,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4323,7 +4353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,25 +4455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4365,73 +4467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4449,37 +4485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4491,19 +4509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4514,15 +4544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4541,32 +4562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4595,6 +4595,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4602,15 +4641,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4622,10 +4652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4634,133 +4664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5496,10 +5526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E614"/>
+  <dimension ref="A1:E654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="G489" sqref="G489"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="D654" sqref="D654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7626,6 +7656,56 @@
     <row r="614" spans="4:4">
       <c r="D614" s="2" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3">
+      <c r="C645" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="646" spans="4:4">
+      <c r="D646" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="647" spans="4:4">
+      <c r="D647" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="648" spans="4:4">
+      <c r="D648" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3">
+      <c r="C650" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="651" spans="4:4">
+      <c r="D651" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3">
+      <c r="C653" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="654" spans="4:4">
+      <c r="D654" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
